--- a/xlsx/中大西洋地区_intext.xlsx
+++ b/xlsx/中大西洋地区_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>中大西洋地区</t>
   </si>
@@ -29,7 +29,7 @@
     <t>美国</t>
   </si>
   <si>
-    <t>政策_政策_美國_中大西洋地区</t>
+    <t>政策_政策_美国_中大西洋地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
@@ -117,9 +117,6 @@
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美國</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:US-stub</t>
@@ -969,7 +966,7 @@
         <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -995,10 +992,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>4</v>
@@ -1024,10 +1021,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
@@ -1053,10 +1050,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
